--- a/PlanPPT/데이터테이블_20250822.xlsx
+++ b/PlanPPT/데이터테이블_20250822.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hs087\OneDrive\바탕 화면\ProjectRT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hs087\ProjectRT\ProjectRTplan\PlanPPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -37,10 +37,169 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="336">
   <x:si>
+    <x:t>Execution (20),
+MarkHunted2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 아군에게 B_MarkHuntBuff2 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnlockSteelcapPlantation</x:t>
+  </x:si>
+  <x:si>
     <x:t>범위 내의 적에게 피해를 입히고 Execution(20) 발동, 이후 True를 리턴 받을 경우 MarkHunted2 발동
 (ScrapeDiagram : 시전자를 가로 한 변 중앙을 기준으로 하는, 가로/세로 1500px * 500px의 직사각형 도형)</x:t>
   </x:si>
   <x:si>
+    <x:t>ActiveAreaAttackPrefab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Defense1Passive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Require Resource List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토/건물에서의 철 생산량 1.2배 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OtherSkillCoefficient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ManaRecovery
+OnAttack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveMaxMultuTarget</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B_EnhanceAttackSpeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillDamage
+Coefficient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveSkillAttackCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식량 생산 증강 2
+스틸캡 배양 준비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토/건물에서의 식량 생산량 1.2배 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토/건물에서의 목재 생산량 1.2배 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 공격 중인 대상에게 단일 공격 실시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ManaRecovery
+PerSecond</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BaseAttackBonusEffect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철목 인공생장실을 건설할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PassiveSkillCoefficient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnlockWeaponExpFacility</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnlockMetreeFacility</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnlockHoneybeekingdom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>늑대 협력국 의뢰 성공 보상 +25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveMultiTargetRange</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목재 생산 증강 2
+과수원 재배 준비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스틸캡 재배장을 건설할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WoundSweepingDiagram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B_ReinforceAttackSpeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OtherSkill
+Coefficent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신을 기준으로 300 범위 내의 아군 치유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B_EnhanceAttackSpeed(100,5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 아군에게 B_MarkHuntBuff 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다양한 연구를 진행하는 장소입니다. 많을수록 연구량과 소요 시간을 획기적으로 단축시킵니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방어전투 발생 확률 -5%
+* 늑대 이외의 활성화된 협력국 1개당 +5%, 최대 +5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여려 협력국의 병력이 모여 생활하는 곳입니다. 좋은 복지가 이들에게 힘을 줄 것입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세간에 떠도는 이야기를 듣고 검증하는 곳입니다. 행운은 준비된 자에게 찾아오는 법입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물 식량 생산량 +30%
+* 늑대 이외의 활성화된 협력국 1개당 -15%, 최소 0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">고온/고압의 지하에서 철광석을 두른 버섯의 모습을 한 '스틸캡'을 재배하는 곳입니다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(WolfSkillUpgrade 연구 활성화 시) 해당 대상에게 추가로 1.5초 스턴 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토/건물에서의 연구력 생산량 1.2배 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveAreaAttackDirection</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveSkillDamageCoeffcient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(WolfSkillUpgrade 연구 활성화 시) B_ReinforceAttackSpeed(10)을 자신에게 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디버프가 부여되면 해당 병력의 스킬이 데미지 부여 여부와 관계 없이 즉시 종료, 적용 시간동안 스킬 사용 불가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>위협적일지도 모르지만 귀여운 꿀벌들이 사는 곳입니다. 꿀과 벌집에 관한 거래가 성공적으로 진행되길 빌어야겠습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 병력의 AttackSpeed를 n초 동안 m% 만큼 증가 (공식 : 원래 값 * (1 + m/100))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(WolfSkillUpgrade 연구 활성화 시) SkillDamageCoefficient를 3→4.5로 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디버프가 부여되면 해당 병력의 공격/스킬이 데미지 부여 여부와 관계 없이 즉시 종료, 적용 시간동안 공격/스킬 사용/이동 불가</x:t>
+  </x:si>
+  <x:si>
     <x:t>(WolfSkillUpgrade 연구 활성화 시) 치유 받은 아군에게 추가로 B_EnhanceAttackSpeed(20) 부여</x:t>
   </x:si>
   <x:si>
@@ -48,65 +207,10 @@
 * 늑대 이외의 활성화된 협력국이 존재할 경우 해당 효과 비활성화</x:t>
   </x:si>
   <x:si>
-    <x:t>디버프가 부여되면 해당 병력의 공격/스킬이 데미지 부여 여부와 관계 없이 즉시 종료, 적용 시간동안 공격/스킬 사용/이동 불가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(WolfSkillUpgrade 연구 활성화 시) SkillDamageCoefficient를 3→4.5로 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디버프가 부여되면 해당 병력의 스킬이 데미지 부여 여부와 관계 없이 즉시 종료, 적용 시간동안 스킬 사용 불가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위협적일지도 모르지만 귀여운 꿀벌들이 사는 곳입니다. 꿀과 벌집에 관한 거래가 성공적으로 진행되길 빌어야겠습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 병력의 AttackSpeed를 해당 전투가 종료되기 전까지 m% 만큼 증가 (공식 : 원래 값 * (1 + m/100), 무제한 중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3초간 공격속도, 공격력 +20% 증가 버프 부여 (여러 번 적용될 경우 중첩 X, 지속 시간만 갱신, B_MarkHuntBuff2와 중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3초간 공격속도, 공격력 +30% 증가 버프 부여 (여러 번 적용될 경우 중첩 X, 지속 시간만 갱신, B_MarkHuntBuff와 중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">고온/고압의 지하에서 철광석을 두른 버섯의 모습을 한 '스틸캡'을 재배하는 곳입니다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 함수를 지닌 공격이 적중 후 체력이 n% 이하인 적을 즉시 사망시킴, 이후 성공 여부에 따라 execute 체크 관련 변수 하나를 True/False로 리턴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물 식량 생산량 +30%
-* 늑대 이외의 활성화된 협력국 1개당 -15%, 최소 0%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철림 내부에 깊게 감춰진 호수입니다. 순도 높은 운철과 살이 오른 생선을 얻어볼 수 있어 보입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운석이 떨어지며 땅에 녹아든 성분을 흡수한 운철목이 있는 곳입니다. 채취에 강한 도구가 필요해 보입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수많은 비버의 터전입니다. 빽빽한 나뭇가지의 밀도 덕분에 사철이나 사금, 생선 또한 확보가 가능합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(WolfSkillUpgrade 연구 활성화 시) B_ReinforceAttackSpeed(10)을 자신에게 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 병력의 AttackSpeed를 n초 동안 m% 만큼 증가 (공식 : 원래 값 * (1 + m/100))</x:t>
-  </x:si>
-  <x:si>
     <x:t>자신을 기준으로 500 범위 내의 D_HuntMark1~3 중 한 개라도 부여된 적군이 받는 데미지 감지 후 해당 데미지의 SkillCoefficient 만큼 자신의 체력 회복</x:t>
   </x:si>
   <x:si>
     <x:t>주변 환경에서 영감을 얻을만한 표본을 보관하는 곳입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지하의 힘을 끌어내는 뜨거운 힘이 집약된 곳입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveAreaAttackSpawnPosition</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Additional Effect Description</x:t>
   </x:si>
   <x:si>
     <x:t>연구력 생산 증강 2
@@ -114,7 +218,16 @@
 약재 정리</x:t>
   </x:si>
   <x:si>
+    <x:t>Additional Effect Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveAreaAttackSpawnPosition</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">(WolfSkillUpgrade 연구 활성화 시) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>지하의 힘을 끌어내는 뜨거운 힘이 집약된 곳입니다.</x:t>
   </x:si>
   <x:si>
     <x:t>확보한 운철목을 분석하고 생장 가속화에 대해 연구하는 곳입니다. 많은 표본이 부산물로 생산됩니다.</x:t>
@@ -124,531 +237,827 @@
 * 늑대 이외의 활성화된 협력국 1개당 -10%, 최소 0%</x:t>
   </x:si>
   <x:si>
-    <x:t>(WolfSkillUpgrade 연구 활성화 시) SkillDamageCoefficient를 2.5 →3.5로 적용</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">최대 2명에게 공격 실시, 스킬 공격으로 인해 무리사냥 디버프가 적용된 적이 처치당할 경우 MarkHunted 발동 </x:t>
-  </x:si>
-  <x:si>
     <x:t>방어전투에서의 늑대 병력 공격력, 방어력, 체력 1.2배 증가
 * 늑대 이외의 활성화된 협력국 1개당 -0.1배, 최소 1배 조정</x:t>
   </x:si>
   <x:si>
+    <x:t>해당 함수를 지닌 공격이 적중 후 체력이 n% 이하인 적을 즉시 사망시킴, 이후 성공 여부에 따라 execute 체크 관련 변수 하나를 True/False로 리턴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3초간 공격속도, 공격력 +30% 증가 버프 부여 (여러 번 적용될 경우 중첩 X, 지속 시간만 갱신, B_MarkHuntBuff와 중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 병력의 AttackSpeed를 해당 전투가 종료되기 전까지 m% 만큼 증가 (공식 : 원래 값 * (1 + m/100), 무제한 중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3초간 공격속도, 공격력 +20% 증가 버프 부여 (여러 번 적용될 경우 중첩 X, 지속 시간만 갱신, B_MarkHuntBuff2와 중첩 가능)</x:t>
+  </x:si>
+  <x:si>
     <x:t>약재의 냄새가 고약하다는 특징 때문에 여러모로 험한 소문이 도는 곳입니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>자신에게 B_EnhanceAttackSpeed(100,5) 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무리사냥 디버프의 피해량 증가치 +30% → +50%로 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 요소에서 얻는 공격력 증가량을 공격속도 증가량으로 변환함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(WolfSkillUpgrade 연구 활성화 시) 해당 대상에게 추가로 1.5초 스턴 부여</x:t>
-  </x:si>
-  <x:si>
     <x:t>모든 건물의 생산량 1.5배 증가 (건물 생산 증강 1, 2 계산 이후 적용)</x:t>
   </x:si>
   <x:si>
     <x:t>해당 병력이 FactionType = Wolf인 병력에게 받는 데미지 +20%</x:t>
   </x:si>
   <x:si>
-    <x:t>ActiveMaxMultuTarget</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B_EnhanceAttackSpeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영토/건물에서의 식량 생산량 1.2배 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영토/건물에서의 목재 생산량 1.2배 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillDamage
-Coefficient</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Require Resource List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveSkillAttackCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Defense1Passive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OtherSkillCoefficient</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영토/건물에서의 철 생산량 1.2배 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재 공격 중인 대상에게 단일 공격 실시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식량 생산 증강 2
-스틸캡 배양 준비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ManaRecovery
-OnAttack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnlockMetreeFacility</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ManaRecovery
-PerSecond</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BaseAttackBonusEffect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철목 인공생장실을 건설할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PassiveSkillCoefficient</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnlockWeaponExpFacility</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnlockHoneybeekingdom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveAreaAttackPrefab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OtherSkill
-Coefficent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveMultiTargetRange</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B_ReinforceAttackSpeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목재 생산 증강 2
-과수원 재배 준비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스틸캡 재배장을 건설할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WoundSweepingDiagram</x:t>
-  </x:si>
-  <x:si>
-    <x:t>늑대 협력국 의뢰 성공 보상 +25%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본적인 형태의 벌목장입니다. 넓히는데에는 그리 큰 어려움이 필요해보이지 않습니다.</x:t>
+    <x:t>늑대 방어/근거리 병력의 방어력 +10
+늑대 원거리 병력의 공격력 +20%</x:t>
   </x:si>
   <x:si>
     <x:t>채소와 과일을 재배하는 넓은 농장입니다. 좀 더 좋은 재배 수단이 필요해보입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 병력이 FactionType = Wolf인 병력에게 받는 데미지 +100%</x:t>
   </x:si>
   <x:si>
     <x:t>늑대 병력의 기본 공격 시 마나 회복량 +3
 늑대 병력의 초당 마나 회복량 +2</x:t>
   </x:si>
   <x:si>
+    <x:t>여러 방면으로 도움이 필요한 자들이 모이는 곳입니다. 물론 대가는 공짜가 아닙니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본적인 형태의 벌목장입니다. 넓히는데에는 그리 큰 어려움이 필요해보이지 않습니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>전투가 끝나면 병력을 모아 무기에 대한 평가를 듣고 개선안을 연구하는 곳입니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>여러 방면으로 도움이 필요한 자들이 모이는 곳입니다. 물론 대가는 공짜가 아닙니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 병력이 FactionType = Wolf인 병력에게 받는 데미지 +100%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B_EnhanceAttackSpeed(100,5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자신을 기준으로 300 범위 내의 아군 치유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 아군에게 B_MarkHuntBuff 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영토/건물에서의 연구력 생산량 1.2배 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveAreaAttackDirection</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveSkillDamageCoeffcient</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Execution (20),
-MarkHunted2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 아군에게 B_MarkHuntBuff2 부여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnlockSteelcapPlantation</x:t>
+    <x:t>운석이 떨어지며 땅에 녹아든 성분을 흡수한 운철목이 있는 곳입니다. 채취에 강한 도구가 필요해 보입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철림 내부에 깊게 감춰진 호수입니다. 순도 높은 운철과 살이 오른 생선을 얻어볼 수 있어 보입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수많은 비버의 터전입니다. 빽빽한 나뭇가지의 밀도 덕분에 사철이나 사금, 생선 또한 확보가 가능합니다.</x:t>
   </x:si>
   <x:si>
     <x:t>기본 공격 시 해당 병력에게 현재 활성화된 HunterMarkUpgrade(연구 없음, 1, 2) 중 가장 높은 등급에 따라 D_HunterMark(1, 2, 3) 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 요소에서 얻는 공격력 증가량을 공격속도 증가량으로 변환함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자신에게 B_EnhanceAttackSpeed(100,5) 부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무리사냥 디버프의 피해량 증가치 +30% → +50%로 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">최대 2명에게 공격 실시, 스킬 공격으로 인해 무리사냥 디버프가 적용된 적이 처치당할 경우 MarkHunted 발동 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>(WolfSkillUpgrade 연구 활성화 시) SkillDamageCoefficient를 2.5 →3.5로 적용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신뢰의 증거2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무리의 도움2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxMana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무리의 도움3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rampage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물-운철호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약재 정리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>늑대의 경계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물-과수원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Int (n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpRes1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D_Stun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scrape</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melee</x:t>
+  </x:si>
+  <x:si>
+    <x:t>False</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사냥 결속1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ratio</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parmacy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비버 마을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스틸캡 재배장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사냥 결속2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Food</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 실험실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>늑대의 삶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpCon1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Request</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpGat3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpGat2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사냥 결속3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpRes2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철림 탐색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Iron</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꿀벌 왕국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpCon3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Range</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물-약방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burst</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무리의 도움1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채집 개선 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채집 개선 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orchard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물-운철림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표본수집실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unlocks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpGat1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barrack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>채집 개선 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신뢰의 증거1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Defense</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metlake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpCon2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>생존법 연구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>True</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Melee3Active</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillAttack
+Shape</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Melee2Passive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillCoefficient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnlockBeavervillage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Filename/
+Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveSkillLogic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillAttack
+Count</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Melee3Passive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>철 생산 증강 2
+운철림 탐색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>범위 내의 적에게 피해를 입히고 입힌 피해량의 15% 만큼 치유
+(WoundSweepingShape : 시전자를 꼭짓점으로 두며, 반지름이 100px인 120° 짜리 부채꼴 도형)</x:t>
   </x:si>
   <x:si>
     <x:t>영토/건물 식량 생산량 -20%, 대신 늑대 병력의 공격력 1.5배 증가
 * 늑대 이외의 활성화된 협력국 1개당 각각의 효과 +10%, 공격력 -0.25배, 최소 0%, 1배 조정</x:t>
   </x:si>
   <x:si>
-    <x:t>범위 내의 적에게 피해를 입히고 입힌 피해량의 15% 만큼 치유
-(WoundSweepingShape : 시전자를 꼭짓점으로 두며, 반지름이 100px인 120° 짜리 부채꼴 도형)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>늑대 방어/근거리 병력의 방어력 +10
-늑대 원거리 병력의 공격력 +20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영토/건물에서의 연구량 생산량 1.2배 증가 (연구력 생산 증강 1과 곱적용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 병력이 FactionType = Wolf인 병력에게 받는 데미지 +50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영토/건물에서의 식량 생산량 1.2배 증가 (식량 생산 증강 1과 곱적용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영토/건물에서의 목재 생산량 1.2배 증가 (목재 생산 증강 1과 곱적용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 함수를 지닌 공격이 적중 시, 입히는 피해량의 n%만큼 공격자 회복</x:t>
+    <x:t>B_MarkHuntBuff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RequestOffice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BuildingType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B_MarkHuntBuff2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 건물의 생산량 +30%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beavervillage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnlockOrchard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2티어 유닛 잠금 해제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CoefficientType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토 자원 생산량 +20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnlockMetlake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnlockParmacy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>늑대 병력의 공격력 +20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GroupRecover</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ApplyHuntMark</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IsFirstLocked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토 자원 생산량 +30%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DefensePower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ScrapeDiagram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 건물의 생산량 +20%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LifeSteal(15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OtherSkillRange</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ThirstOfHunt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 실험실 건설 추진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약방을 건설할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물-운철목 인공생장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Defense1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WoundSweeping</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prerequisites</x:t>
   </x:si>
   <x:si>
     <x:t>MetreeFacility</x:t>
   </x:si>
   <x:si>
-    <x:t>무기 실험실 건설 추진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WoundSweeping</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약방을 건설할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>MetreeForest</x:t>
   </x:si>
   <x:si>
-    <x:t>건물-운철목 인공생장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Defense1</x:t>
+    <x:t>Honeybeekingdom</x:t>
   </x:si>
   <x:si>
     <x:t>IsSkillFinished</x:t>
   </x:si>
   <x:si>
-    <x:t>Prerequisites</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Honeybeekingdom</x:t>
-  </x:si>
-  <x:si>
     <x:t>Production List</x:t>
   </x:si>
   <x:si>
     <x:t>WolfResearchIn5</x:t>
   </x:si>
   <x:si>
+    <x:t>늑대 병력의 방어력 +5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ActiveSkillType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>늑대 병력의 스킬 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X / D_Stun(1.5)</x:t>
+  </x:si>
+  <x:si>
     <x:t>3티어 유닛 잠금 해제</x:t>
   </x:si>
   <x:si>
-    <x:t>늑대 병력의 방어력 +5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveSkillType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>늑대 병력의 스킬 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X / D_Stun(1.5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BuildingType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DefensePower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LifeSteal(15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영토 자원 생산량 +20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CoefficientType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ScrapeDiagram</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B_MarkHuntBuff2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 건물의 생산량 +30%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnlockMetlake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beavervillage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnlockOrchard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 건물의 생산량 +20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ThirstOfHunt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2티어 유닛 잠금 해제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnlockParmacy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ApplyHuntMark</x:t>
-  </x:si>
-  <x:si>
-    <x:t>늑대 병력의 공격력 +20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IsFirstLocked</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GroupRecover</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B_MarkHuntBuff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OtherSkillRange</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영토 자원 생산량 +30%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RequestOffice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LifeSteal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpWood1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float (n,m)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D_HuntMark2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AttackRange</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FangStrike</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식량 생산 증강 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lumberyard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpIron1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AttackSpeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Execution</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coefficient</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MaxHealth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnitName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float (n)</x:t>
+    <x:t>Wolf_Range2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Melee2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Melee3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Defense1Active</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철림을 건설할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철호를 건설할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비버 마을을 건설할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PassiveSkillLogic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PassiveSkillRange</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SteelcapPlantation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 실험실을 건설할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DataCollectFacility</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WeaponExpFacility</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnlockMetreeForest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꿀벌 왕국을 건설할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InformaionOffice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillBouns
+Effect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WolfResearchIn100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토/건물 식량 생산량 +20%</x:t>
   </x:si>
   <x:si>
     <x:t>영토 식량 생산량 1.2배 증가</x:t>
   </x:si>
   <x:si>
-    <x:t>WolfResearchIn60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WeaponExpFacility</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비버 마을을 건설할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnlockMetreeForest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철림을 건설할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>꿀벌 왕국을 건설할 수 있습니다.</x:t>
+    <x:t>WolfResearchIn65</x:t>
   </x:si>
   <x:si>
     <x:t>WolfResearchIn40</x:t>
   </x:si>
   <x:si>
-    <x:t>InformaionOffice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PassiveSkillRange</x:t>
+    <x:t>Wolf_Melee1Active</x:t>
   </x:si>
   <x:si>
     <x:t>OtherSkill
 Range</x:t>
   </x:si>
   <x:si>
-    <x:t>영토/건물 식량 생산량 +20%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Melee1Active</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PassiveSkillLogic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillBouns
-Effect</x:t>
-  </x:si>
-  <x:si>
     <x:t>WolfResearchIn90</x:t>
   </x:si>
   <x:si>
     <x:t>Wolf_Range1Active</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Defense1Active</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SteelcapPlantation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철호를 건설할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 실험실을 건설할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DataCollectFacility</x:t>
   </x:si>
   <x:si>
     <x:t>Damage
 Coefficient</x:t>
   </x:si>
   <x:si>
-    <x:t>Require Research</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Melee2Active</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Range2Active</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RedManaCirculation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과수원을 건설할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn80</x:t>
-  </x:si>
-  <x:si>
     <x:t>EnemySearch
 Range</x:t>
   </x:si>
   <x:si>
+    <x:t>Wolf_Range2Active</x:t>
+  </x:si>
+  <x:si>
     <x:t>WolfResearchIn15</x:t>
   </x:si>
   <x:si>
-    <x:t>철 생산 증강 2
-운철림 탐색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnlockBeavervillage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Melee3Active</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Melee2Passive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Filename/
-Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ActiveSkillLogic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillCoefficient</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillAttack
-Shape</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillAttack
-Count</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Melee3Passive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WolfResearchIn35</x:t>
+    <x:t>WolfResearchIn80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Require Research</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Melee2Active</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RedManaCirculation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과수원을 건설할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토/건물에서의 목재 생산량 1.2배 증가 (목재 생산 증강 1과 곱적용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토/건물에서의 연구량 생산량 1.2배 증가 (연구력 생산 증강 1과 곱적용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 병력이 FactionType = Wolf인 병력에게 받는 데미지 +50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토/건물에서의 식량 생산량 1.2배 증가 (식량 생산 증강 1과 곱적용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 함수를 지닌 공격이 적중 시, 입히는 피해량의 n%만큼 공격자 회복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비버 마을 방문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식량 생산 증강 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목재 생산 증강 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpWood2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뭉치면 살기에6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxSpeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Research</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FactionType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Range1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물 생산 증강 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FileName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철림 내부 조사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물-꿀벌 왕국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttackPower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과수원 재배 준비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpIron2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>철 생산 증강 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnitType</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철목 인공생장소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철목 집중연구 개시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스틸캡 배양 준비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D_HuntMark1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물 생산 증강 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Production</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MarkHunted2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물 생산 증강 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wolf_Melee1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구력 생산 증강 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물-비버 마을</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DoubleShot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물-스틸캡 재배장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꽃다발 선물 포장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpFood1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건물-무기 실험실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식량 생산 증강 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D_HuntMark2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpWood1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttackSpeed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxHealth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float (n,m)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnitName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float (n)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttackRange</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LifeSteal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Execution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coefficient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lumberyard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FangStrike</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpIron1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MarkHunted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SkillRange</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뭉치면 살기에4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구력 생산 증강 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뭉치면 살기에2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뭉치면 살기에3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D_Slience</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BaseMana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D_HuntMark3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Information</x:t>
+  </x:si>
+  <x:si>
+    <x:t>철 생산 증강 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AttackCount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뭉치면 살기에5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목재 생산 증강 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ImpFood2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ironworks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뭉치면 살기에1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>농장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벌목장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대장간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>병영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연구소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과수원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>약방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의뢰소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운철호</x:t>
   </x:si>
   <x:si>
     <x:t>영토 자원 생산량 1.5배 증가 (채집 개선 1, 2 계산 이후 적용)</x:t>
@@ -661,422 +1070,13 @@
   </x:si>
   <x:si>
     <x:t>자신이 입은 피해량의 SkillCoefficient 만큼 마나 회복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세간에 떠도는 이야기를 듣고 검증하는 곳입니다. 행운은 준비된 자에게 찾아오는 법입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>다양한 연구를 진행하는 장소입니다. 많을수록 연구량과 소요 시간을 획기적으로 단축시킵니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방어전투 발생 확률 -5%
-* 늑대 이외의 활성화된 협력국 1개당 +5%, 최대 +5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여려 협력국의 병력이 모여 생활하는 곳입니다. 좋은 복지가 이들에게 힘을 줄 것입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MarkHunted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillRange</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뭉치면 살기에1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뭉치면 살기에3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Information</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D_HuntMark3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구력 생산 증강 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목재 생산 증강 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뭉치면 살기에5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D_Slience</x:t>
-  </x:si>
-  <x:si>
-    <x:t>철 생산 증강 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AttackCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뭉치면 살기에4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ironworks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpFood2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뭉치면 살기에2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BaseMana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뭉치면 살기에6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철림 내부 조사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과수원 재배 준비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FactionType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물-꿀벌 왕국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpWood2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MaxSpeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물 생산 증강 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FileName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비버 마을 방문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AttackPower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Research</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식량 생산 증강 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Range1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목재 생산 증강 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스틸캡 배양 준비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>철 생산 증강 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구력 생산 증강 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Melee1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Production</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D_HuntMark1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물 생산 증강 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물-비버 마을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DoubleShot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpIron2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철목 인공생장소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MarkHunted2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UnitType</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물 생산 증강 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철목 집중연구 개시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물-스틸캡 재배장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpFood1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물-무기 실험실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>꽃다발 선물 포장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SkillCount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpCon2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>생존법 연구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>True</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpGat2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpRes2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무기 실험실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parmacy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>False</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사냥 결속3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철림 탐색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>늑대의 삶</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사냥 결속1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비버 마을</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ratio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Request</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpGat3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>None</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스틸캡 재배장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Food</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사냥 결속2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpCon1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표본수집실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채집 개선 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채집 개선 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>꿀벌 왕국</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpCon3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orchard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물-운철림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iron</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Range</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물-약방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burst</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무리의 도움1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Defense</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metlake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>채집 개선 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Unlocks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Barrack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpGat1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신뢰의 증거1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약재 정리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Int (n)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신뢰의 증거2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ImpRes1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무리의 도움3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무리의 도움2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물-운철호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rampage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>늑대의 경계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scrape</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건물-과수원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D_Stun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MaxMana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연구소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대장간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벌목장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의뢰소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철림</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과수원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>병영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>농장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>약방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운철호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Melee3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Melee2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wolf_Range2</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="11">
+  <x:fonts count="10">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -1122,27 +1122,6 @@
       <x:sz val="20"/>
       <x:color rgb="ff0000ff"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-          <hs:underlineType val="1"/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineColor rgb="ff0000ff"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -2019,6 +1998,9 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -2162,9 +2144,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -2506,88 +2485,88 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:15" ht="35" customHeight="1">
-      <x:c r="A1" s="59" t="s">
-        <x:v>279</x:v>
-      </x:c>
-      <x:c r="B1" s="60" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="C1" s="60" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D1" s="62" t="s">
-        <x:v>286</x:v>
-      </x:c>
-      <x:c r="E1" s="60" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="F1" s="64" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G1" s="64"/>
-      <x:c r="H1" s="64"/>
-      <x:c r="I1" s="65"/>
-      <x:c r="J1" s="66" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="K1" s="66"/>
-      <x:c r="L1" s="66"/>
-      <x:c r="M1" s="66"/>
-      <x:c r="N1" s="67" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="O1" s="69" t="s">
-        <x:v>274</x:v>
+      <x:c r="A1" s="60" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B1" s="61" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C1" s="61" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="D1" s="63" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E1" s="61" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="F1" s="65" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G1" s="65"/>
+      <x:c r="H1" s="65"/>
+      <x:c r="I1" s="66"/>
+      <x:c r="J1" s="67" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="K1" s="67"/>
+      <x:c r="L1" s="67"/>
+      <x:c r="M1" s="67"/>
+      <x:c r="N1" s="68" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="O1" s="70" t="s">
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" ht="35" customHeight="1">
-      <x:c r="A2" s="59"/>
-      <x:c r="B2" s="61"/>
-      <x:c r="C2" s="61"/>
-      <x:c r="D2" s="63"/>
-      <x:c r="E2" s="61"/>
+      <x:c r="A2" s="60"/>
+      <x:c r="B2" s="62"/>
+      <x:c r="C2" s="62"/>
+      <x:c r="D2" s="64"/>
+      <x:c r="E2" s="62"/>
       <x:c r="F2" s="2" t="s">
-        <x:v>288</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G2" s="2" t="s">
-        <x:v>292</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H2" s="2" t="s">
-        <x:v>280</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I2" s="3" t="s">
-        <x:v>234</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="J2" s="2" t="s">
-        <x:v>288</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="K2" s="2" t="s">
-        <x:v>292</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="L2" s="2" t="s">
-        <x:v>280</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="M2" s="2" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="N2" s="68"/>
-      <x:c r="O2" s="69"/>
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="N2" s="69"/>
+      <x:c r="O2" s="70"/>
     </x:row>
     <x:row r="3" spans="1:15" ht="35" customHeight="1">
       <x:c r="A3" s="28">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>136</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C3" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D3" s="5" t="s">
-        <x:v>322</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>65</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F3" s="1"/>
       <x:c r="G3" s="1">
@@ -2602,7 +2581,7 @@
       <x:c r="L3" s="1"/>
       <x:c r="M3" s="1"/>
       <x:c r="N3" s="7" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="O3" s="1">
         <x:f>ROUND(SUM(J3:M3)/SUM(F3:I3),2)</x:f>
@@ -2614,16 +2593,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>218</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C4" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>20</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F4" s="1">
         <x:v>80</x:v>
@@ -2640,7 +2619,7 @@
       <x:c r="L4" s="1"/>
       <x:c r="M4" s="1"/>
       <x:c r="N4" s="7" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="O4" s="1">
         <x:f>ROUND(SUM(J4:M4)/SUM(F4:I4),2)</x:f>
@@ -2652,16 +2631,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>272</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>328</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F5" s="1">
         <x:v>60</x:v>
@@ -2678,7 +2657,7 @@
       </x:c>
       <x:c r="M5" s="1"/>
       <x:c r="N5" s="7" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="O5" s="1">
         <x:f>ROUND(SUM(J5:M5)/SUM(F5:I5),2)</x:f>
@@ -2690,16 +2669,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>169</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D6" s="5" t="s">
-        <x:v>283</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>19</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F6" s="1">
         <x:v>50</x:v>
@@ -2720,7 +2699,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N6" s="7" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="O6" s="1">
         <x:f>ROUND(SUM(J6:M6)/SUM(F6:I6),2)</x:f>
@@ -2732,16 +2711,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>290</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D7" s="5" t="s">
         <x:v>326</x:v>
       </x:c>
       <x:c r="E7" s="6" t="s">
-        <x:v>198</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="F7" s="1">
         <x:v>80</x:v>
@@ -2762,7 +2741,7 @@
       </x:c>
       <x:c r="M7" s="1"/>
       <x:c r="N7" s="24" t="s">
-        <x:v>212</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="O7" s="1">
         <x:f>ROUND(SUM(J7:M7)/SUM(F7:I7),2)</x:f>
@@ -2774,16 +2753,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>93</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C8" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>324</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E8" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F8" s="1"/>
       <x:c r="G8" s="1">
@@ -2802,7 +2781,7 @@
       <x:c r="L8" s="1"/>
       <x:c r="M8" s="1"/>
       <x:c r="N8" s="24" t="s">
-        <x:v>215</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="O8" s="1">
         <x:f>ROUND(SUM(J8:M8)/SUM(F8:I8),2)</x:f>
@@ -2814,16 +2793,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>166</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C9" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
-        <x:v>278</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E9" s="6" t="s">
-        <x:v>10</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F9" s="1">
         <x:v>50</x:v>
@@ -2844,7 +2823,7 @@
       </x:c>
       <x:c r="M9" s="1"/>
       <x:c r="N9" s="24" t="s">
-        <x:v>235</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="O9" s="1">
         <x:f>ROUND(SUM(J9:M9)/SUM(F9:I9),2)</x:f>
@@ -2856,16 +2835,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C10" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D10" s="5" t="s">
-        <x:v>265</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E10" s="6" t="s">
-        <x:v>68</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F10" s="1">
         <x:v>75</x:v>
@@ -2883,7 +2862,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="N10" s="24" t="s">
-        <x:v>241</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="O10" s="1">
         <x:f>ROUND(SUM(J10:M10)/SUM(F10:I10),2)</x:f>
@@ -2895,16 +2874,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="8" t="s">
-        <x:v>266</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>329</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="E11" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F11" s="1">
         <x:v>80</x:v>
@@ -2925,7 +2904,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N11" s="24" t="s">
-        <x:v>241</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="O11" s="1">
         <x:f>ROUND(SUM(J11:M11)/SUM(F11:I11),2)</x:f>
@@ -2937,16 +2916,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D12" s="5" t="s">
-        <x:v>273</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E12" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F12" s="1">
         <x:v>150</x:v>
@@ -2969,7 +2948,7 @@
       </x:c>
       <x:c r="M12" s="1"/>
       <x:c r="N12" s="24" t="s">
-        <x:v>237</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="O12" s="1">
         <x:f>ROUND(SUM(J12:M12)/SUM(F12:I12),2)</x:f>
@@ -2981,16 +2960,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="8" t="s">
-        <x:v>298</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D13" s="5" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="E13" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F13" s="1">
         <x:v>125</x:v>
@@ -3013,7 +2992,7 @@
       </x:c>
       <x:c r="M13" s="1"/>
       <x:c r="N13" s="24" t="s">
-        <x:v>239</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="O13" s="1">
         <x:f>ROUND(SUM(J13:M13)/SUM(F13:I13),2)</x:f>
@@ -3025,16 +3004,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D14" s="5" t="s">
-        <x:v>287</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F14" s="1">
         <x:v>75</x:v>
@@ -3059,7 +3038,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="N14" s="24" t="s">
-        <x:v>135</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="O14" s="1">
         <x:f>ROUND(SUM(J14:M14)/SUM(F14:I14),2)</x:f>
@@ -3071,16 +3050,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="8" t="s">
-        <x:v>89</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D15" s="5" t="s">
-        <x:v>249</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>25</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F15" s="1">
         <x:v>100</x:v>
@@ -3105,7 +3084,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="N15" s="24" t="s">
-        <x:v>211</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="O15" s="1">
         <x:f>ROUND(SUM(J15:M15)/SUM(F15:I15),2)</x:f>
@@ -3117,16 +3096,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="8" t="s">
-        <x:v>330</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>234</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D16" s="5" t="s">
-        <x:v>320</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>201</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F16" s="1">
         <x:v>300</x:v>
@@ -3152,16 +3131,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="8" t="s">
-        <x:v>128</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>275</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D17" s="5" t="s">
-        <x:v>323</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F17" s="1">
         <x:v>250</x:v>
@@ -3183,16 +3162,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="8" t="s">
-        <x:v>301</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>301</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D18" s="5" t="s">
-        <x:v>327</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="E18" s="6" t="s">
-        <x:v>203</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F18" s="1">
         <x:v>300</x:v>
@@ -3216,16 +3195,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>154</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>209</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D19" s="5" t="s">
-        <x:v>325</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="E19" s="6" t="s">
-        <x:v>200</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F19" s="1">
         <x:v>175</x:v>
@@ -3551,34 +3530,34 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="45.75" customHeight="1">
       <x:c r="A1" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B1" s="11" t="s">
-        <x:v>225</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C1" s="14" t="s">
-        <x:v>231</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D1" s="15" t="s">
-        <x:v>286</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E1" s="12" t="s">
-        <x:v>205</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="F1" s="13" t="s">
-        <x:v>314</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G1" s="13" t="s">
-        <x:v>240</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H1" s="13" t="s">
-        <x:v>97</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I1" s="13" t="s">
-        <x:v>300</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="J1" s="13" t="s">
-        <x:v>123</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3586,16 +3565,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C2" s="22" t="s">
-        <x:v>282</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D2" s="19" t="s">
-        <x:v>230</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E2" s="20" t="s">
-        <x:v>117</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F2" s="19">
         <x:v>50</x:v>
@@ -3604,13 +3583,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H2" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I2" s="19" t="s">
-        <x:v>252</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="J2" s="27" t="s">
-        <x:v>267</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3618,16 +3597,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C3" s="22" t="s">
-        <x:v>259</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
-        <x:v>252</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E3" s="20" t="s">
-        <x:v>113</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F3" s="19">
         <x:v>75</x:v>
@@ -3636,13 +3615,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>230</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>245</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="J3" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3650,16 +3629,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C4" s="22" t="s">
-        <x:v>289</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
-        <x:v>245</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E4" s="20" t="s">
-        <x:v>35</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F4" s="19">
         <x:v>125</x:v>
@@ -3668,13 +3647,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>245</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J4" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3682,16 +3661,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>302</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>285</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E5" s="20" t="s">
-        <x:v>109</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F5" s="19">
         <x:v>50</x:v>
@@ -3700,13 +3679,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>299</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="J5" s="27" t="s">
-        <x:v>267</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3714,16 +3693,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>262</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>299</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E6" s="20" t="s">
-        <x:v>127</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F6" s="19">
         <x:v>75</x:v>
@@ -3732,13 +3711,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>285</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>284</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="J6" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3746,16 +3725,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>276</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>284</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E7" s="20" t="s">
-        <x:v>196</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="F7" s="19">
         <x:v>125</x:v>
@@ -3764,13 +3743,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>299</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J7" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3778,16 +3757,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>130</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E8" s="20" t="s">
-        <x:v>40</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F8" s="19">
         <x:v>150</x:v>
@@ -3796,13 +3775,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H8" s="53" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I8" s="21" t="s">
-        <x:v>61</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J8" s="27" t="s">
-        <x:v>267</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3810,16 +3789,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>227</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>237</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E9" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="F9" s="19">
         <x:v>200</x:v>
@@ -3828,13 +3807,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>232</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="J9" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3842,16 +3821,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>137</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E10" s="20" t="s">
-        <x:v>46</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F10" s="19">
         <x:v>150</x:v>
@@ -3860,13 +3839,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I10" s="21" t="s">
-        <x:v>179</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="J10" s="27" t="s">
-        <x:v>267</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3874,16 +3853,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>248</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>239</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E11" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="F11" s="19">
         <x:v>200</x:v>
@@ -3892,13 +3871,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>223</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="J11" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3906,16 +3885,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>255</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E12" s="20" t="s">
-        <x:v>39</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F12" s="19">
         <x:v>150</x:v>
@@ -3924,13 +3903,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I12" s="21" t="s">
-        <x:v>48</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J12" s="27" t="s">
-        <x:v>267</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3938,16 +3917,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
-        <x:v>219</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E13" s="20" t="s">
-        <x:v>86</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="F13" s="19">
         <x:v>200</x:v>
@@ -3956,13 +3935,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>257</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="J13" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -3970,16 +3949,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="17" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C14" s="18" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D14" s="19" t="s">
         <x:v>277</x:v>
       </x:c>
-      <x:c r="C14" s="18" t="s">
-        <x:v>307</x:v>
-      </x:c>
-      <x:c r="D14" s="19" t="s">
-        <x:v>241</x:v>
-      </x:c>
       <x:c r="E14" s="20" t="s">
-        <x:v>74</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F14" s="19">
         <x:v>150</x:v>
@@ -3988,13 +3967,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I14" s="23" t="s">
-        <x:v>23</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J14" s="27" t="s">
-        <x:v>267</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4002,16 +3981,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>263</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>211</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E15" s="20" t="s">
-        <x:v>84</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="F15" s="19">
         <x:v>200</x:v>
@@ -4020,13 +3999,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>241</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>253</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="J15" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4034,16 +4013,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>116</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>224</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E16" s="20" t="s">
-        <x:v>175</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F16" s="19">
         <x:v>150</x:v>
@@ -4052,13 +4031,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>316</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="J16" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4066,16 +4045,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>148</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>269</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E17" s="20" t="s">
-        <x:v>151</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F17" s="19">
         <x:v>150</x:v>
@@ -4084,13 +4063,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>215</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>291</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="J17" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4098,16 +4077,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
-        <x:v>79</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>238</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="E18" s="20" t="s">
-        <x:v>62</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F18" s="19">
         <x:v>150</x:v>
@@ -4116,13 +4095,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>235</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>254</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="J18" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4130,16 +4109,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
-        <x:v>55</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E19" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F19" s="19">
         <x:v>150</x:v>
@@ -4148,13 +4127,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>241</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>256</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="J19" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4162,16 +4141,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>120</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>304</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E20" s="20" t="s">
-        <x:v>92</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F20" s="19">
         <x:v>150</x:v>
@@ -4180,13 +4159,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>241</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>294</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="J20" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4194,16 +4173,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C21" s="25" t="s">
-        <x:v>181</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>232</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E21" s="20" t="s">
-        <x:v>147</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F21" s="19">
         <x:v>400</x:v>
@@ -4212,13 +4191,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>237</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>246</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="J21" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4226,16 +4205,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C22" s="25" t="s">
-        <x:v>114</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>223</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E22" s="20" t="s">
-        <x:v>167</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F22" s="19">
         <x:v>400</x:v>
@@ -4244,13 +4223,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>239</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>310</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="J22" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4258,16 +4237,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C23" s="25" t="s">
-        <x:v>56</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>257</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="E23" s="20" t="s">
-        <x:v>152</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F23" s="19">
         <x:v>400</x:v>
@@ -4276,13 +4255,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>135</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>226</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="J23" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4290,16 +4269,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C24" s="25" t="s">
-        <x:v>50</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>253</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E24" s="20" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F24" s="19">
         <x:v>400</x:v>
@@ -4308,13 +4287,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>211</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="J24" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4322,16 +4301,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>100</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E25" s="20" t="s">
-        <x:v>144</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F25" s="19">
         <x:v>75</x:v>
@@ -4340,13 +4319,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J25" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4354,16 +4333,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>190</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>296</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E26" s="20" t="s">
-        <x:v>158</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F26" s="19">
         <x:v>75</x:v>
@@ -4372,13 +4351,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J26" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4386,16 +4365,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>178</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>260</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E27" s="20" t="s">
-        <x:v>64</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F27" s="19">
         <x:v>125</x:v>
@@ -4404,13 +4383,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J27" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4418,16 +4397,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>180</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>207</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E28" s="20" t="s">
-        <x:v>102</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F28" s="19">
         <x:v>50</x:v>
@@ -4436,13 +4415,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J28" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10" ht="56.25" customHeight="1">
@@ -4450,16 +4429,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>194</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>309</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="52" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F29" s="19">
         <x:v>250</x:v>
@@ -4468,13 +4447,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J29" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10" ht="66.75" customHeight="1">
@@ -4482,16 +4461,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>191</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>220</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E30" s="52" t="s">
-        <x:v>67</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F30" s="19">
         <x:v>200</x:v>
@@ -4500,13 +4479,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J30" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10" ht="57.75" customHeight="1">
@@ -4514,16 +4493,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>195</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>208</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E31" s="52" t="s">
-        <x:v>29</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F31" s="19">
         <x:v>200</x:v>
@@ -4532,13 +4511,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J31" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4546,16 +4525,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>153</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>303</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E32" s="20" t="s">
-        <x:v>119</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F32" s="19">
         <x:v>400</x:v>
@@ -4564,13 +4543,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J32" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:10" ht="56.25" customHeight="1">
@@ -4578,16 +4557,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>188</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>308</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E33" s="52" t="s">
-        <x:v>26</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F33" s="19">
         <x:v>150</x:v>
@@ -4596,13 +4575,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J33" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4610,16 +4589,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B34" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>184</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>217</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="E34" s="20" t="s">
-        <x:v>122</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F34" s="19">
         <x:v>250</x:v>
@@ -4628,13 +4607,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J34" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4642,16 +4621,16 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
-        <x:v>150</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E35" s="20" t="s">
-        <x:v>32</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F35" s="19">
         <x:v>250</x:v>
@@ -4660,13 +4639,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J35" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10" ht="56.25" customHeight="1">
@@ -4674,16 +4653,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B36" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C36" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>312</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E36" s="52" t="s">
-        <x:v>202</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F36" s="19">
         <x:v>175</x:v>
@@ -4692,13 +4671,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J36" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10" ht="59.25" customHeight="1">
@@ -4706,16 +4685,16 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B37" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C37" s="18" t="s">
-        <x:v>155</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>213</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="E37" s="52" t="s">
-        <x:v>81</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F37" s="19">
         <x:v>400</x:v>
@@ -4724,13 +4703,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J37" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4738,16 +4717,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B38" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C38" s="18" t="s">
-        <x:v>165</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>306</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E38" s="20" t="s">
-        <x:v>101</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F38" s="19">
         <x:v>500</x:v>
@@ -4756,13 +4735,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J38" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10" ht="65.25" customHeight="1">
@@ -4770,16 +4749,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B39" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C39" s="18" t="s">
-        <x:v>176</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>222</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E39" s="52" t="s">
-        <x:v>83</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F39" s="19">
         <x:v>300</x:v>
@@ -4788,13 +4767,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J39" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -4802,16 +4781,16 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B40" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C40" s="18" t="s">
-        <x:v>162</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E40" s="52" t="s">
-        <x:v>104</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F40" s="19">
         <x:v>500</x:v>
@@ -4820,13 +4799,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J40" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10" ht="68.25" customHeight="1">
@@ -4834,16 +4813,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B41" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C41" s="18" t="s">
-        <x:v>149</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>268</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E41" s="52" t="s">
-        <x:v>2</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F41" s="19">
         <x:v>700</x:v>
@@ -4852,13 +4831,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="J41" s="26" t="s">
-        <x:v>261</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:10" ht="32.70000000000000284217" customHeight="1">
@@ -5603,67 +5582,67 @@
     </x:row>
     <x:row r="2" spans="1:43" ht="59.25" customHeight="1">
       <x:c r="A2" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>231</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C2" s="15" t="s">
-        <x:v>142</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D2" s="12" t="s">
-        <x:v>251</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E2" s="11" t="s">
-        <x:v>225</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="F2" s="13" t="s">
-        <x:v>233</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G2" s="13" t="s">
-        <x:v>107</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="H2" s="13" t="s">
-        <x:v>141</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="I2" s="13" t="s">
-        <x:v>229</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="J2" s="13" t="s">
-        <x:v>133</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="K2" s="13" t="s">
-        <x:v>138</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="L2" s="13" t="s">
-        <x:v>221</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="M2" s="31" t="s">
-        <x:v>318</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N2" s="37" t="s">
-        <x:v>49</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O2" s="36" t="s">
-        <x:v>51</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P2" s="13" t="s">
-        <x:v>216</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="Q2" s="31" t="s">
-        <x:v>170</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="R2" s="37" t="s">
-        <x:v>177</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="S2" s="13" t="s">
-        <x:v>52</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="T2" s="13" t="s">
-        <x:v>186</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="U2" s="13" t="s">
-        <x:v>160</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="V2" s="13"/>
       <x:c r="W2" s="13"/>
@@ -5693,14 +5672,14 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>236</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C3" s="19"/>
       <x:c r="D3" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E3" s="30" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F3" s="19">
         <x:v>100</x:v>
@@ -5742,13 +5721,13 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="S3" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="T3" s="45" t="s">
-        <x:v>163</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="U3" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="V3" s="19"/>
       <x:c r="W3" s="26"/>
@@ -5778,14 +5757,14 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>242</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C4" s="19"/>
       <x:c r="D4" s="19" t="s">
-        <x:v>315</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E4" s="30" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F4" s="19">
         <x:v>100</x:v>
@@ -5827,13 +5806,13 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="S4" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="T4" s="45" t="s">
-        <x:v>159</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="U4" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="V4" s="19"/>
       <x:c r="W4" s="27"/>
@@ -5863,14 +5842,14 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="22" t="s">
-        <x:v>95</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C5" s="19"/>
       <x:c r="D5" s="19" t="s">
-        <x:v>297</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E5" s="30" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F5" s="19">
         <x:v>100</x:v>
@@ -5912,13 +5891,13 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="S5" s="44" t="s">
-        <x:v>121</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="T5" s="45" t="s">
-        <x:v>164</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="U5" s="51" t="s">
-        <x:v>44</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="V5" s="19"/>
       <x:c r="W5" s="26"/>
@@ -5948,14 +5927,14 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>334</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C6" s="19"/>
       <x:c r="D6" s="19" t="s">
-        <x:v>315</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E6" s="30" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F6" s="21">
         <x:v>60</x:v>
@@ -5997,13 +5976,13 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="S6" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="T6" s="56" t="s">
-        <x:v>172</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="U6" s="57" t="s">
-        <x:v>183</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="V6" s="19"/>
       <x:c r="W6" s="27"/>
@@ -6033,14 +6012,14 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="22" t="s">
-        <x:v>335</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C7" s="19"/>
       <x:c r="D7" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E7" s="30" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F7" s="21">
         <x:v>100</x:v>
@@ -6082,13 +6061,13 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="S7" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="T7" s="58" t="s">
-        <x:v>173</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="U7" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="V7" s="19"/>
       <x:c r="W7" s="26"/>
@@ -6118,14 +6097,14 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="22" t="s">
-        <x:v>333</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C8" s="19"/>
       <x:c r="D8" s="19" t="s">
-        <x:v>315</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E8" s="30" t="s">
-        <x:v>264</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F8" s="21">
         <x:v>150</x:v>
@@ -6167,13 +6146,13 @@
         <x:v>450</x:v>
       </x:c>
       <x:c r="S8" s="38" t="s">
-        <x:v>331</x:v>
-      </x:c>
-      <x:c r="T8" s="70" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="U8" s="70" t="s">
-        <x:v>193</x:v>
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="T8" s="59" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="U8" s="59" t="s">
+        <x:v>157</x:v>
       </x:c>
       <x:c r="V8" s="19"/>
       <x:c r="W8" s="26"/>
@@ -6206,7 +6185,7 @@
       <x:c r="C9" s="19"/>
       <x:c r="D9" s="19"/>
       <x:c r="E9" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F9" s="21"/>
       <x:c r="G9" s="19"/>
@@ -6255,7 +6234,7 @@
       <x:c r="C10" s="19"/>
       <x:c r="D10" s="19"/>
       <x:c r="E10" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F10" s="21"/>
       <x:c r="G10" s="19"/>
@@ -6304,7 +6283,7 @@
       <x:c r="C11" s="19"/>
       <x:c r="D11" s="19"/>
       <x:c r="E11" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F11" s="21"/>
       <x:c r="G11" s="19"/>
@@ -6353,7 +6332,7 @@
       <x:c r="C12" s="19"/>
       <x:c r="D12" s="19"/>
       <x:c r="E12" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F12" s="21"/>
       <x:c r="G12" s="19"/>
@@ -6402,7 +6381,7 @@
       <x:c r="C13" s="19"/>
       <x:c r="D13" s="19"/>
       <x:c r="E13" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F13" s="21"/>
       <x:c r="G13" s="19"/>
@@ -6451,7 +6430,7 @@
       <x:c r="C14" s="19"/>
       <x:c r="D14" s="19"/>
       <x:c r="E14" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F14" s="21"/>
       <x:c r="G14" s="19"/>
@@ -6500,7 +6479,7 @@
       <x:c r="C15" s="19"/>
       <x:c r="D15" s="19"/>
       <x:c r="E15" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F15" s="21"/>
       <x:c r="G15" s="19"/>
@@ -6549,7 +6528,7 @@
       <x:c r="C16" s="19"/>
       <x:c r="D16" s="19"/>
       <x:c r="E16" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F16" s="21"/>
       <x:c r="G16" s="19"/>
@@ -6598,7 +6577,7 @@
       <x:c r="C17" s="19"/>
       <x:c r="D17" s="19"/>
       <x:c r="E17" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F17" s="21"/>
       <x:c r="G17" s="19"/>
@@ -6647,7 +6626,7 @@
       <x:c r="C18" s="19"/>
       <x:c r="D18" s="19"/>
       <x:c r="E18" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F18" s="21"/>
       <x:c r="G18" s="19"/>
@@ -6696,7 +6675,7 @@
       <x:c r="C19" s="19"/>
       <x:c r="D19" s="19"/>
       <x:c r="E19" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F19" s="21"/>
       <x:c r="G19" s="19"/>
@@ -6745,7 +6724,7 @@
       <x:c r="C20" s="19"/>
       <x:c r="D20" s="19"/>
       <x:c r="E20" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F20" s="21"/>
       <x:c r="G20" s="19"/>
@@ -6794,7 +6773,7 @@
       <x:c r="C21" s="19"/>
       <x:c r="D21" s="19"/>
       <x:c r="E21" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F21" s="21"/>
       <x:c r="G21" s="19"/>
@@ -6843,7 +6822,7 @@
       <x:c r="C22" s="19"/>
       <x:c r="D22" s="19"/>
       <x:c r="E22" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F22" s="21"/>
       <x:c r="G22" s="19"/>
@@ -6892,7 +6871,7 @@
       <x:c r="C23" s="19"/>
       <x:c r="D23" s="19"/>
       <x:c r="E23" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F23" s="21"/>
       <x:c r="G23" s="19"/>
@@ -6941,7 +6920,7 @@
       <x:c r="C24" s="19"/>
       <x:c r="D24" s="19"/>
       <x:c r="E24" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F24" s="21"/>
       <x:c r="G24" s="19"/>
@@ -6990,7 +6969,7 @@
       <x:c r="C25" s="19"/>
       <x:c r="D25" s="19"/>
       <x:c r="E25" s="30" t="s">
-        <x:v>277</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F25" s="21"/>
       <x:c r="G25" s="19"/>
@@ -7499,37 +7478,37 @@
     </x:row>
     <x:row r="2" spans="1:40" ht="59.25" customHeight="1">
       <x:c r="A2" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C2" s="15" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="D2" s="47" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="37" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="F2" s="31" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="G2" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H2" s="37" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="C2" s="15" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="D2" s="47" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E2" s="37" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="F2" s="31" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="G2" s="37" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H2" s="37" t="s">
-        <x:v>157</x:v>
-      </x:c>
       <x:c r="I2" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="J2" s="31" t="s">
-        <x:v>205</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="K2" s="31" t="s">
-        <x:v>22</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="L2" s="36"/>
       <x:c r="M2" s="13"/>
@@ -7566,10 +7545,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>163</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C3" s="20" t="s">
-        <x:v>247</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D3" s="30">
         <x:v>3</x:v>
@@ -7578,22 +7557,22 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F3" s="30" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G3" s="30" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>204</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="J3" s="48" t="s">
-        <x:v>28</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="K3" s="39" t="s">
-        <x:v>4</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L3" s="19"/>
       <x:c r="M3" s="19"/>
@@ -7631,10 +7610,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>159</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C4" s="20" t="s">
-        <x:v>134</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D4" s="30">
         <x:v>1.5</x:v>
@@ -7643,22 +7622,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F4" s="30" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="J4" s="39" t="s">
-        <x:v>47</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="K4" s="39" t="s">
-        <x:v>34</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="L4" s="19"/>
       <x:c r="M4" s="19"/>
@@ -7695,19 +7674,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="22" t="s">
-        <x:v>164</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C5" s="20" t="s">
-        <x:v>124</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D5" s="30" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F5" s="30" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G5" s="19">
         <x:v>2</x:v>
@@ -7716,13 +7695,13 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J5" s="39" t="s">
-        <x:v>72</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K5" s="39" t="s">
-        <x:v>1</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="L5" s="19"/>
       <x:c r="M5" s="19"/>
@@ -7759,34 +7738,34 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>172</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C6" s="20" t="s">
-        <x:v>91</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D6" s="30">
         <x:v>2.5</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="J6" s="48" t="s">
-        <x:v>82</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="K6" s="39" t="s">
-        <x:v>27</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="L6" s="19"/>
       <x:c r="M6" s="19"/>
@@ -7823,34 +7802,34 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="22" t="s">
-        <x:v>173</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C7" s="20" t="s">
-        <x:v>295</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D7" s="30" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F7" s="30" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J7" s="39" t="s">
-        <x:v>31</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K7" s="39" t="s">
-        <x:v>16</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="L7" s="19"/>
       <x:c r="M7" s="19"/>
@@ -7887,34 +7866,34 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="22" t="s">
-        <x:v>182</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C8" s="20" t="s">
-        <x:v>313</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D8" s="30">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I8" s="21" t="s">
-        <x:v>77</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="48" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K8" s="39" t="s">
-        <x:v>24</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="L8" s="19"/>
       <x:c r="M8" s="19"/>
@@ -9125,31 +9104,31 @@
     </x:row>
     <x:row r="2" spans="1:38" ht="59.25" customHeight="1">
       <x:c r="A2" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>231</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C2" s="15" t="s">
-        <x:v>228</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="D2" s="47" t="s">
-        <x:v>187</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E2" s="31" t="s">
-        <x:v>258</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F2" s="31" t="s">
-        <x:v>206</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="G2" s="31" t="s">
-        <x:v>161</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H2" s="31" t="s">
-        <x:v>205</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="I2" s="31" t="s">
-        <x:v>22</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="J2" s="36"/>
       <x:c r="K2" s="13"/>
@@ -9186,28 +9165,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>44</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="20" t="s">
-        <x:v>118</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D3" s="30">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F3" s="19">
         <x:v>500</x:v>
       </x:c>
       <x:c r="G3" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H3" s="39" t="s">
-        <x:v>18</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I3" s="50" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="J3" s="19"/>
       <x:c r="K3" s="19"/>
@@ -9245,25 +9224,25 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>183</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C4" s="20" t="s">
-        <x:v>174</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D4" s="30">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E4" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F4" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G4" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H4" s="39" t="s">
-        <x:v>199</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="I4" s="39"/>
       <x:c r="J4" s="19"/>
@@ -9301,25 +9280,25 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="22" t="s">
-        <x:v>193</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C5" s="20" t="s">
-        <x:v>311</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D5" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E5" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F5" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G5" s="38" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H5" s="39" t="s">
-        <x:v>33</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I5" s="39"/>
       <x:c r="J5" s="19"/>
@@ -10544,7 +10523,7 @@
   <x:dimension ref="A1:AR33"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <x:selection activeCell="B5" activeCellId="0" sqref="B5:B5"/>
+      <x:selection activeCell="C2" activeCellId="0" sqref="C2:C2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -10616,16 +10595,16 @@
     </x:row>
     <x:row r="2" spans="1:44" ht="59.25" customHeight="1">
       <x:c r="A2" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>231</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C2" s="12" t="s">
-        <x:v>140</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D2" s="15" t="s">
-        <x:v>205</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E2" s="12"/>
       <x:c r="F2" s="11"/>
@@ -10652,49 +10631,49 @@
       <x:c r="AA2" s="33"/>
       <x:c r="AB2" s="13"/>
       <x:c r="AC2" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="AD2" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="AE2" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="AF2" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="AG2" s="13" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="AH2" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="AI2" s="13" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="AJ2" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="AG2" s="13" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="AH2" s="13" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AI2" s="13" t="s">
+      <x:c r="AK2" s="13" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="AJ2" s="13" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AK2" s="13" t="s">
+      <x:c r="AL2" s="13" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="AM2" s="33" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="AN2" s="33" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="AL2" s="13" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="AM2" s="33" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="AN2" s="33" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="AO2" s="13" t="s">
-        <x:v>126</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="AP2" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="AQ2" s="13" t="s">
-        <x:v>156</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="AR2" s="13"/>
     </x:row>
@@ -10703,10 +10682,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="24" t="s">
-        <x:v>121</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C3" s="19" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D3" s="39" t="s">
         <x:v>80</x:v>
@@ -10757,13 +10736,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="30" t="s">
-        <x:v>204</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C4" s="21" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D4" s="39" t="s">
-        <x:v>73</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E4" s="19"/>
       <x:c r="F4" s="30"/>
@@ -10811,13 +10790,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="30" t="s">
-        <x:v>250</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C5" s="21" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D5" s="39" t="s">
-        <x:v>78</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="19"/>
       <x:c r="F5" s="30"/>
@@ -10865,13 +10844,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="41" t="s">
-        <x:v>129</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C6" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D6" s="39" t="s">
-        <x:v>88</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E6" s="19"/>
       <x:c r="F6" s="30"/>
@@ -10919,13 +10898,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="41" t="s">
-        <x:v>139</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C7" s="19" t="s">
-        <x:v>305</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D7" s="39" t="s">
-        <x:v>11</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E7" s="19"/>
       <x:c r="F7" s="30"/>
@@ -12229,7 +12208,7 @@
   <x:dimension ref="A1:AS34"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
+      <x:selection activeCell="D51" activeCellId="0" sqref="D51:D51"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -12302,16 +12281,16 @@
     </x:row>
     <x:row r="2" spans="1:44" ht="59.25" customHeight="1">
       <x:c r="A2" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B2" s="14" t="s">
-        <x:v>231</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C2" s="12" t="s">
-        <x:v>110</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D2" s="15" t="s">
-        <x:v>205</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E2" s="12"/>
       <x:c r="F2" s="11"/>
@@ -12338,49 +12317,49 @@
       <x:c r="AA2" s="33"/>
       <x:c r="AB2" s="13"/>
       <x:c r="AC2" s="13" t="s">
-        <x:v>103</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="AD2" s="13" t="s">
-        <x:v>96</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="AE2" s="13" t="s">
-        <x:v>76</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="AF2" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="AG2" s="13" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="AH2" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="AI2" s="13" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="AJ2" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="AG2" s="13" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="AH2" s="13" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="AI2" s="13" t="s">
+      <x:c r="AK2" s="13" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="AJ2" s="13" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AK2" s="13" t="s">
+      <x:c r="AL2" s="13" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="AM2" s="33" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="AN2" s="33" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="AL2" s="13" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="AM2" s="33" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="AN2" s="33" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="AO2" s="13" t="s">
-        <x:v>126</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="AP2" s="13" t="s">
-        <x:v>54</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="AQ2" s="13" t="s">
-        <x:v>156</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="AR2" s="13"/>
     </x:row>
@@ -12389,13 +12368,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>317</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C3" s="21" t="s">
-        <x:v>143</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D3" s="39" t="s">
-        <x:v>3</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E3" s="19"/>
       <x:c r="F3" s="30"/>
@@ -12444,13 +12423,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>214</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C4" s="21" t="s">
-        <x:v>143</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D4" s="39" t="s">
-        <x:v>5</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E4" s="19"/>
       <x:c r="F4" s="30"/>
@@ -12498,13 +12477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="22" t="s">
-        <x:v>244</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C5" s="21" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D5" s="39" t="s">
-        <x:v>36</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E5" s="19"/>
       <x:c r="F5" s="30"/>
@@ -12552,13 +12531,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>132</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="C6" s="21" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D6" s="39" t="s">
-        <x:v>85</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E6" s="19"/>
       <x:c r="F6" s="30"/>
@@ -12606,13 +12585,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="22" t="s">
-        <x:v>210</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C7" s="21" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D7" s="39" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E7" s="19"/>
       <x:c r="F7" s="30"/>
@@ -12660,13 +12639,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="18" t="s">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>131</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D8" s="39" t="s">
-        <x:v>17</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E8" s="19"/>
       <x:c r="F8" s="30"/>
@@ -12714,13 +12693,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="18" t="s">
-        <x:v>60</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="21" t="s">
-        <x:v>143</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D9" s="39" t="s">
-        <x:v>7</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E9" s="19"/>
       <x:c r="F9" s="30"/>
@@ -12768,13 +12747,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="18" t="s">
-        <x:v>125</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C10" s="21" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D10" s="39" t="s">
-        <x:v>8</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E10" s="19"/>
       <x:c r="F10" s="30"/>
@@ -12822,13 +12801,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="18" t="s">
-        <x:v>112</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C11" s="21" t="s">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D11" s="39" t="s">
-        <x:v>9</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E11" s="19"/>
       <x:c r="F11" s="30"/>
@@ -13986,7 +13965,7 @@
   <x:dimension ref="A1:AQ33"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <x:selection activeCell="F5" activeCellId="0" sqref="F5:F5"/>
+      <x:selection activeCell="F52" activeCellId="0" sqref="F52:F52"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -14052,16 +14031,16 @@
     </x:row>
     <x:row r="2" spans="1:43" ht="59.25" customHeight="1">
       <x:c r="A2" s="54" t="s">
-        <x:v>185</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B2" s="55" t="s">
-        <x:v>236</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C2" s="55" t="s">
-        <x:v>242</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D2" s="55" t="s">
-        <x:v>95</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E2" s="11"/>
       <x:c r="F2" s="13"/>
@@ -14108,13 +14087,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="22" t="s">
-        <x:v>180</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C3" s="22" t="s">
-        <x:v>180</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D3" s="22" t="s">
-        <x:v>180</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E3" s="30"/>
       <x:c r="F3" s="19"/>
@@ -14161,13 +14140,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C4" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D4" s="22" t="s">
-        <x:v>191</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E4" s="30"/>
       <x:c r="F4" s="19"/>
@@ -14214,13 +14193,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C5" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D5" s="22" t="s">
-        <x:v>195</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E5" s="30"/>
       <x:c r="F5" s="19"/>
@@ -14267,13 +14246,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="18" t="s">
-        <x:v>184</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>184</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D6" s="18" t="s">
-        <x:v>184</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E6" s="30"/>
       <x:c r="F6" s="21"/>
@@ -14320,13 +14299,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="18" t="s">
-        <x:v>150</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>150</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D7" s="18" t="s">
-        <x:v>150</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E7" s="30"/>
       <x:c r="F7" s="21"/>
@@ -14373,13 +14352,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="18" t="s">
-        <x:v>176</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>176</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D8" s="18" t="s">
-        <x:v>176</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E8" s="30"/>
       <x:c r="F8" s="21"/>
@@ -14426,13 +14405,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="18" t="s">
-        <x:v>162</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>162</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D9" s="18" t="s">
-        <x:v>162</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E9" s="30"/>
       <x:c r="F9" s="21"/>
@@ -14479,13 +14458,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="18" t="s">
-        <x:v>149</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>149</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D10" s="18" t="s">
-        <x:v>149</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E10" s="30"/>
       <x:c r="F10" s="21"/>
